--- a/prep_data/2025_rushing_defense.xlsx
+++ b/prep_data/2025_rushing_defense.xlsx
@@ -487,28 +487,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C2" t="n">
-        <v>279</v>
+        <v>328</v>
       </c>
       <c r="D2" t="n">
-        <v>1078</v>
+        <v>1309</v>
       </c>
       <c r="E2" t="n">
-        <v>3.86</v>
+        <v>3.99</v>
       </c>
       <c r="F2" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G2" t="n">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>82.90000000000001</v>
+        <v>87.3</v>
       </c>
     </row>
     <row r="3">
@@ -518,493 +518,493 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C3" t="n">
-        <v>313</v>
+        <v>360</v>
       </c>
       <c r="D3" t="n">
-        <v>1157</v>
+        <v>1353</v>
       </c>
       <c r="E3" t="n">
-        <v>3.7</v>
+        <v>3.76</v>
       </c>
       <c r="F3" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G3" t="n">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89</v>
+        <v>90.2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>New England Patriots</t>
+          <t>Seattle Seahawks</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C4" t="n">
-        <v>288</v>
+        <v>380</v>
       </c>
       <c r="D4" t="n">
-        <v>1163</v>
+        <v>1411</v>
       </c>
       <c r="E4" t="n">
-        <v>4.04</v>
+        <v>3.71</v>
       </c>
       <c r="F4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G4" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>89.5</v>
+        <v>94.09999999999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Seattle Seahawks</t>
+          <t>Houston Texans</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C5" t="n">
-        <v>311</v>
+        <v>350</v>
       </c>
       <c r="D5" t="n">
-        <v>1185</v>
+        <v>1443</v>
       </c>
       <c r="E5" t="n">
-        <v>3.81</v>
+        <v>4.12</v>
       </c>
       <c r="F5" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G5" t="n">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>91.2</v>
+        <v>96.2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Houston Texans</t>
+          <t>Indianapolis Colts</t>
         </is>
       </c>
       <c r="B6" t="n">
+        <v>15</v>
+      </c>
+      <c r="C6" t="n">
+        <v>387</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1477</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="F6" t="n">
         <v>13</v>
       </c>
-      <c r="C6" t="n">
-        <v>302</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1226</v>
-      </c>
-      <c r="E6" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
-      </c>
       <c r="G6" t="n">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>94.3</v>
+        <v>98.5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Indianapolis Colts</t>
+          <t>New England Patriots</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C7" t="n">
-        <v>334</v>
+        <v>358</v>
       </c>
       <c r="D7" t="n">
-        <v>1282</v>
+        <v>1502</v>
       </c>
       <c r="E7" t="n">
-        <v>3.84</v>
+        <v>4.2</v>
       </c>
       <c r="F7" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G7" t="n">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.59999999999999</v>
+        <v>100.1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Kansas City Chiefs</t>
+          <t>Tampa Bay Buccaneers</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C8" t="n">
-        <v>315</v>
+        <v>352</v>
       </c>
       <c r="D8" t="n">
-        <v>1293</v>
+        <v>1520</v>
       </c>
       <c r="E8" t="n">
-        <v>4.1</v>
+        <v>4.32</v>
       </c>
       <c r="F8" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G8" t="n">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>99.5</v>
+        <v>101.3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Tampa Bay Buccaneers</t>
+          <t>San Francisco 49ers</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C9" t="n">
-        <v>311</v>
+        <v>363</v>
       </c>
       <c r="D9" t="n">
-        <v>1308</v>
+        <v>1543</v>
       </c>
       <c r="E9" t="n">
-        <v>4.21</v>
+        <v>4.25</v>
       </c>
       <c r="F9" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G9" t="n">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>100.6</v>
+        <v>102.9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Green Bay Packers</t>
+          <t>Kansas City Chiefs</t>
         </is>
       </c>
       <c r="B10" t="n">
+        <v>15</v>
+      </c>
+      <c r="C10" t="n">
+        <v>384</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1551</v>
+      </c>
+      <c r="E10" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="F10" t="n">
         <v>13</v>
       </c>
-      <c r="C10" t="n">
-        <v>335</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1318</v>
-      </c>
-      <c r="E10" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="F10" t="n">
-        <v>9</v>
-      </c>
       <c r="G10" t="n">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>101.4</v>
+        <v>103.4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Detroit Lions</t>
+          <t>Green Bay Packers</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C11" t="n">
-        <v>344</v>
+        <v>392</v>
       </c>
       <c r="D11" t="n">
-        <v>1335</v>
+        <v>1557</v>
       </c>
       <c r="E11" t="n">
-        <v>3.88</v>
+        <v>3.97</v>
       </c>
       <c r="F11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G11" t="n">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>102.7</v>
+        <v>103.8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Los Angeles Rams</t>
+          <t>Los Angeles Chargers</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C12" t="n">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="D12" t="n">
-        <v>1345</v>
+        <v>1557</v>
       </c>
       <c r="E12" t="n">
-        <v>3.92</v>
+        <v>4.44</v>
       </c>
       <c r="F12" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="G12" t="n">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>103.5</v>
+        <v>103.8</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>San Francisco 49ers</t>
+          <t>Los Angeles Rams</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C13" t="n">
-        <v>323</v>
+        <v>388</v>
       </c>
       <c r="D13" t="n">
-        <v>1349</v>
+        <v>1586</v>
       </c>
       <c r="E13" t="n">
-        <v>4.18</v>
+        <v>4.09</v>
       </c>
       <c r="F13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G13" t="n">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="H13" t="n">
         <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>103.8</v>
+        <v>105.7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Cleveland Browns</t>
+          <t>Baltimore Ravens</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C14" t="n">
-        <v>364</v>
+        <v>393</v>
       </c>
       <c r="D14" t="n">
-        <v>1400</v>
+        <v>1634</v>
       </c>
       <c r="E14" t="n">
-        <v>3.85</v>
+        <v>4.16</v>
       </c>
       <c r="F14" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G14" t="n">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>107.7</v>
+        <v>108.9</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Los Angeles Chargers</t>
+          <t>Cleveland Browns</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C15" t="n">
-        <v>307</v>
+        <v>426</v>
       </c>
       <c r="D15" t="n">
-        <v>1417</v>
+        <v>1706</v>
       </c>
       <c r="E15" t="n">
-        <v>4.62</v>
+        <v>4</v>
       </c>
       <c r="F15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G15" t="n">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>109</v>
+        <v>113.7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Baltimore Ravens</t>
+          <t>Pittsburgh Steelers</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>341</v>
+        <v>399</v>
       </c>
       <c r="D16" t="n">
-        <v>1455</v>
+        <v>1707</v>
       </c>
       <c r="E16" t="n">
-        <v>4.27</v>
+        <v>4.28</v>
       </c>
       <c r="F16" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G16" t="n">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>111.9</v>
+        <v>113.8</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Las Vegas Raiders</t>
+          <t>Detroit Lions</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>384</v>
+        <v>400</v>
       </c>
       <c r="D17" t="n">
-        <v>1481</v>
+        <v>1724</v>
       </c>
       <c r="E17" t="n">
-        <v>3.86</v>
+        <v>4.31</v>
       </c>
       <c r="F17" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G17" t="n">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>113.9</v>
+        <v>114.9</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Carolina Panthers</t>
+          <t>Las Vegas Raiders</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C18" t="n">
-        <v>343</v>
+        <v>457</v>
       </c>
       <c r="D18" t="n">
-        <v>1543</v>
+        <v>1747</v>
       </c>
       <c r="E18" t="n">
-        <v>4.5</v>
+        <v>3.82</v>
       </c>
       <c r="F18" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G18" t="n">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>118.7</v>
+        <v>116.5</v>
       </c>
     </row>
     <row r="19">
@@ -1014,59 +1014,59 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C19" t="n">
-        <v>353</v>
+        <v>406</v>
       </c>
       <c r="D19" t="n">
-        <v>1592</v>
+        <v>1781</v>
       </c>
       <c r="E19" t="n">
-        <v>4.51</v>
+        <v>4.39</v>
       </c>
       <c r="F19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G19" t="n">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="H19" t="n">
         <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>122.5</v>
+        <v>118.7</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Arizona Cardinals</t>
+          <t>Carolina Panthers</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C20" t="n">
-        <v>353</v>
+        <v>401</v>
       </c>
       <c r="D20" t="n">
-        <v>1600</v>
+        <v>1793</v>
       </c>
       <c r="E20" t="n">
-        <v>4.53</v>
+        <v>4.47</v>
       </c>
       <c r="F20" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G20" t="n">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>123.1</v>
+        <v>119.5</v>
       </c>
     </row>
     <row r="21">
@@ -1076,214 +1076,214 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C21" t="n">
-        <v>343</v>
+        <v>404</v>
       </c>
       <c r="D21" t="n">
-        <v>1605</v>
+        <v>1834</v>
       </c>
       <c r="E21" t="n">
-        <v>4.68</v>
+        <v>4.54</v>
       </c>
       <c r="F21" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G21" t="n">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>123.5</v>
+        <v>122.3</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Pittsburgh Steelers</t>
+          <t>Philadelphia Eagles</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C22" t="n">
-        <v>371</v>
+        <v>420</v>
       </c>
       <c r="D22" t="n">
-        <v>1629</v>
+        <v>1852</v>
       </c>
       <c r="E22" t="n">
-        <v>4.39</v>
+        <v>4.41</v>
       </c>
       <c r="F22" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G22" t="n">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>125.3</v>
+        <v>123.5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Minnesota Vikings</t>
+          <t>New Orleans Saints</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C23" t="n">
-        <v>405</v>
+        <v>464</v>
       </c>
       <c r="D23" t="n">
-        <v>1648</v>
+        <v>1893</v>
       </c>
       <c r="E23" t="n">
-        <v>4.07</v>
+        <v>4.08</v>
       </c>
       <c r="F23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G23" t="n">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="n">
-        <v>126.8</v>
+        <v>126.2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>New Orleans Saints</t>
+          <t>Arizona Cardinals</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C24" t="n">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="D24" t="n">
-        <v>1702</v>
+        <v>1895</v>
       </c>
       <c r="E24" t="n">
-        <v>4.12</v>
+        <v>4.48</v>
       </c>
       <c r="F24" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G24" t="n">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>130.9</v>
+        <v>126.3</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Atlanta Falcons</t>
+          <t>Minnesota Vikings</t>
         </is>
       </c>
       <c r="B25" t="n">
+        <v>15</v>
+      </c>
+      <c r="C25" t="n">
+        <v>464</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1914</v>
+      </c>
+      <c r="E25" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="F25" t="n">
         <v>13</v>
       </c>
-      <c r="C25" t="n">
-        <v>375</v>
-      </c>
-      <c r="D25" t="n">
-        <v>1703</v>
-      </c>
-      <c r="E25" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="F25" t="n">
-        <v>10</v>
-      </c>
       <c r="G25" t="n">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>131</v>
+        <v>127.6</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Miami Dolphins</t>
+          <t>Atlanta Falcons</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C26" t="n">
-        <v>361</v>
+        <v>420</v>
       </c>
       <c r="D26" t="n">
-        <v>1715</v>
+        <v>1923</v>
       </c>
       <c r="E26" t="n">
-        <v>4.75</v>
+        <v>4.58</v>
       </c>
       <c r="F26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G26" t="n">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>131.9</v>
+        <v>128.2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Philadelphia Eagles</t>
+          <t>Miami Dolphins</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C27" t="n">
-        <v>381</v>
+        <v>419</v>
       </c>
       <c r="D27" t="n">
-        <v>1716</v>
+        <v>1955</v>
       </c>
       <c r="E27" t="n">
-        <v>4.5</v>
+        <v>4.67</v>
       </c>
       <c r="F27" t="n">
         <v>14</v>
       </c>
       <c r="G27" t="n">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I27" t="n">
-        <v>132</v>
+        <v>130.3</v>
       </c>
     </row>
     <row r="28">
@@ -1293,59 +1293,59 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C28" t="n">
-        <v>336</v>
+        <v>396</v>
       </c>
       <c r="D28" t="n">
-        <v>1723</v>
+        <v>1965</v>
       </c>
       <c r="E28" t="n">
-        <v>5.13</v>
+        <v>4.96</v>
       </c>
       <c r="F28" t="n">
         <v>12</v>
       </c>
       <c r="G28" t="n">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>132.5</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Buffalo Bills</t>
+          <t>New York Jets</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C29" t="n">
-        <v>345</v>
+        <v>460</v>
       </c>
       <c r="D29" t="n">
-        <v>1758</v>
+        <v>2005</v>
       </c>
       <c r="E29" t="n">
-        <v>5.1</v>
+        <v>4.36</v>
       </c>
       <c r="F29" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G29" t="n">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>135.2</v>
+        <v>133.7</v>
       </c>
     </row>
     <row r="30">
@@ -1355,59 +1355,59 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C30" t="n">
-        <v>378</v>
+        <v>441</v>
       </c>
       <c r="D30" t="n">
-        <v>1762</v>
+        <v>2115</v>
       </c>
       <c r="E30" t="n">
-        <v>4.66</v>
+        <v>4.8</v>
       </c>
       <c r="F30" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G30" t="n">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30" t="n">
-        <v>135.5</v>
+        <v>141</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>New York Jets</t>
+          <t>Buffalo Bills</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C31" t="n">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="D31" t="n">
-        <v>1813</v>
+        <v>2164</v>
       </c>
       <c r="E31" t="n">
-        <v>4.44</v>
+        <v>5.4</v>
       </c>
       <c r="F31" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G31" t="n">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>139.5</v>
+        <v>144.3</v>
       </c>
     </row>
     <row r="32">
@@ -1417,28 +1417,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C32" t="n">
-        <v>347</v>
+        <v>415</v>
       </c>
       <c r="D32" t="n">
-        <v>2005</v>
+        <v>2264</v>
       </c>
       <c r="E32" t="n">
-        <v>5.78</v>
+        <v>5.46</v>
       </c>
       <c r="F32" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G32" t="n">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="H32" t="n">
         <v>1</v>
       </c>
       <c r="I32" t="n">
-        <v>154.2</v>
+        <v>150.9</v>
       </c>
     </row>
     <row r="33">
@@ -1448,28 +1448,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C33" t="n">
-        <v>390</v>
+        <v>442</v>
       </c>
       <c r="D33" t="n">
-        <v>2022</v>
+        <v>2340</v>
       </c>
       <c r="E33" t="n">
-        <v>5.18</v>
+        <v>5.29</v>
       </c>
       <c r="F33" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G33" t="n">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="H33" t="n">
         <v>1</v>
       </c>
       <c r="I33" t="n">
-        <v>155.5</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
